--- a/data/pca/factorExposure/factorExposure_2019-04-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1271920239324189</v>
+        <v>0.07866845646998347</v>
       </c>
       <c r="C2">
-        <v>-0.000273618542865473</v>
+        <v>0.03768492150392187</v>
       </c>
       <c r="D2">
-        <v>-0.04994089912079284</v>
+        <v>0.01311034765506258</v>
       </c>
       <c r="E2">
-        <v>0.1128372443997662</v>
+        <v>0.03883015131634311</v>
       </c>
       <c r="F2">
-        <v>0.1071698368833547</v>
+        <v>0.1396994313657059</v>
       </c>
       <c r="G2">
-        <v>-0.008337159218251238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1108461654575092</v>
+      </c>
+      <c r="H2">
+        <v>0.05317564376138999</v>
+      </c>
+      <c r="I2">
+        <v>-0.02771583897373069</v>
+      </c>
+      <c r="J2">
+        <v>-0.0722035981447675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2278242256334727</v>
+        <v>0.1701104220292772</v>
       </c>
       <c r="C3">
-        <v>0.1113848252551525</v>
+        <v>0.0918660929913032</v>
       </c>
       <c r="D3">
-        <v>0.03873957765422258</v>
+        <v>-0.03164334443452879</v>
       </c>
       <c r="E3">
-        <v>0.322854257163146</v>
+        <v>-0.02041463428529227</v>
       </c>
       <c r="F3">
-        <v>0.01570674975818467</v>
+        <v>0.366902413300198</v>
       </c>
       <c r="G3">
-        <v>-0.1030045934413598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1004620237401159</v>
+      </c>
+      <c r="H3">
+        <v>0.2810926048000697</v>
+      </c>
+      <c r="I3">
+        <v>-0.1980167408502104</v>
+      </c>
+      <c r="J3">
+        <v>-0.2628888563073588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09816122002924937</v>
+        <v>0.0751240277040711</v>
       </c>
       <c r="C4">
-        <v>0.03579515149999903</v>
+        <v>0.03927703025573877</v>
       </c>
       <c r="D4">
-        <v>-0.02714628885049923</v>
+        <v>-0.02746391847981005</v>
       </c>
       <c r="E4">
-        <v>0.07229953407778782</v>
+        <v>0.03417250142219938</v>
       </c>
       <c r="F4">
-        <v>0.03642932155599141</v>
+        <v>0.08168409579509427</v>
       </c>
       <c r="G4">
-        <v>-0.03445166400689909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04762785840109345</v>
+      </c>
+      <c r="H4">
+        <v>0.02602610468965806</v>
+      </c>
+      <c r="I4">
+        <v>-0.03653575939505019</v>
+      </c>
+      <c r="J4">
+        <v>-0.06091765197536817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01779668719805574</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.008349647568709253</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009059878757027934</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004251439351727405</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.002006072419682422</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02164989608618696</v>
+      </c>
+      <c r="H6">
+        <v>0.003251636610844375</v>
+      </c>
+      <c r="I6">
+        <v>0.01065921125493127</v>
+      </c>
+      <c r="J6">
+        <v>-0.001156532733132666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04232024651379314</v>
+        <v>0.03578090092168054</v>
       </c>
       <c r="C7">
-        <v>0.008357495941476618</v>
+        <v>0.008821159389784715</v>
       </c>
       <c r="D7">
-        <v>-0.03366330771905614</v>
+        <v>-0.04041460747399599</v>
       </c>
       <c r="E7">
-        <v>0.07192964988008446</v>
+        <v>0.02759555211351847</v>
       </c>
       <c r="F7">
-        <v>-0.05077583487907952</v>
+        <v>0.05510155356825264</v>
       </c>
       <c r="G7">
-        <v>0.004355531691683905</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.003571062178222132</v>
+      </c>
+      <c r="H7">
+        <v>0.04666654934610814</v>
+      </c>
+      <c r="I7">
+        <v>0.0054454491464856</v>
+      </c>
+      <c r="J7">
+        <v>-0.05093611732895656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04193842577735659</v>
+        <v>0.03041930432259486</v>
       </c>
       <c r="C8">
-        <v>0.04519403142506504</v>
+        <v>0.04194877459352644</v>
       </c>
       <c r="D8">
-        <v>-0.005312289937165081</v>
+        <v>-0.02757496431109059</v>
       </c>
       <c r="E8">
-        <v>0.06866612222779639</v>
+        <v>0.01349730733312904</v>
       </c>
       <c r="F8">
-        <v>0.006072947816158991</v>
+        <v>0.07151119398888883</v>
       </c>
       <c r="G8">
-        <v>-0.01548769785427041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02275013723924922</v>
+      </c>
+      <c r="H8">
+        <v>0.05087338825181616</v>
+      </c>
+      <c r="I8">
+        <v>-0.03779561456124433</v>
+      </c>
+      <c r="J8">
+        <v>-0.06462667144376227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08602984191542321</v>
+        <v>0.06243405958908009</v>
       </c>
       <c r="C9">
-        <v>0.03604133723677847</v>
+        <v>0.03477758286261134</v>
       </c>
       <c r="D9">
-        <v>-0.0357012459363807</v>
+        <v>-0.03079441622927626</v>
       </c>
       <c r="E9">
-        <v>0.05785747150861739</v>
+        <v>0.03097318567811979</v>
       </c>
       <c r="F9">
-        <v>0.02522450188605182</v>
+        <v>0.08179062568183286</v>
       </c>
       <c r="G9">
-        <v>-0.05164991534949821</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.045219050034398</v>
+      </c>
+      <c r="H9">
+        <v>0.02175848088403159</v>
+      </c>
+      <c r="I9">
+        <v>-0.01704758024937272</v>
+      </c>
+      <c r="J9">
+        <v>-0.03983143269018379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.001052013524136661</v>
+        <v>0.02078068168827093</v>
       </c>
       <c r="C10">
-        <v>-0.1567273687599255</v>
+        <v>-0.144155217053097</v>
       </c>
       <c r="D10">
-        <v>0.01360110632686381</v>
+        <v>0.0577136820522243</v>
       </c>
       <c r="E10">
-        <v>0.07131637846168547</v>
+        <v>-0.01785851125184396</v>
       </c>
       <c r="F10">
-        <v>0.01678478044506063</v>
+        <v>0.07222074129966777</v>
       </c>
       <c r="G10">
-        <v>0.02298581591114926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02348095545565771</v>
+      </c>
+      <c r="H10">
+        <v>0.0009181909114004318</v>
+      </c>
+      <c r="I10">
+        <v>-0.1120542991849404</v>
+      </c>
+      <c r="J10">
+        <v>0.002258277613797438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05741995594471465</v>
+        <v>0.05029235046551877</v>
       </c>
       <c r="C11">
-        <v>0.008803811260435135</v>
+        <v>0.0276349695291825</v>
       </c>
       <c r="D11">
-        <v>0.006358524480164565</v>
+        <v>-0.0009990852148306199</v>
       </c>
       <c r="E11">
-        <v>0.0403153062388485</v>
+        <v>0.006147118985363065</v>
       </c>
       <c r="F11">
-        <v>0.008181677828097615</v>
+        <v>0.0395173792392615</v>
       </c>
       <c r="G11">
-        <v>0.02143776925527854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.00938965747115289</v>
+      </c>
+      <c r="H11">
+        <v>0.001669731049451052</v>
+      </c>
+      <c r="I11">
+        <v>0.01332230915646442</v>
+      </c>
+      <c r="J11">
+        <v>-0.04177850009111411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.0443617203956533</v>
+        <v>0.04745767294250598</v>
       </c>
       <c r="C12">
-        <v>0.0159437806234281</v>
+        <v>0.02281784839070533</v>
       </c>
       <c r="D12">
-        <v>0.003567629275283962</v>
+        <v>-0.01092323346596672</v>
       </c>
       <c r="E12">
-        <v>0.02871767188020115</v>
+        <v>0.008473423432431711</v>
       </c>
       <c r="F12">
-        <v>-0.0006254090454032456</v>
+        <v>0.01695422785190521</v>
       </c>
       <c r="G12">
-        <v>-0.0008964539812904819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0004476912044307005</v>
+      </c>
+      <c r="H12">
+        <v>0.002760937190120465</v>
+      </c>
+      <c r="I12">
+        <v>0.01266764434051194</v>
+      </c>
+      <c r="J12">
+        <v>-0.02629020915268402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06405659475746353</v>
+        <v>0.04348215192509335</v>
       </c>
       <c r="C13">
-        <v>0.0206845387931917</v>
+        <v>0.02939666206605495</v>
       </c>
       <c r="D13">
-        <v>0.007669854328128294</v>
+        <v>0.006769735016066318</v>
       </c>
       <c r="E13">
-        <v>0.1070905320206336</v>
+        <v>0.007116372060226521</v>
       </c>
       <c r="F13">
-        <v>0.01585427215825153</v>
+        <v>0.1036364941991307</v>
       </c>
       <c r="G13">
-        <v>0.006065204632777998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0244858238951443</v>
+      </c>
+      <c r="H13">
+        <v>0.04776582164775642</v>
+      </c>
+      <c r="I13">
+        <v>-0.01064404789926842</v>
+      </c>
+      <c r="J13">
+        <v>-0.05917503944412146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03274984291621169</v>
+        <v>0.02775287536876362</v>
       </c>
       <c r="C14">
-        <v>0.01002509092519967</v>
+        <v>0.01489094788253219</v>
       </c>
       <c r="D14">
-        <v>-0.0233434951212346</v>
+        <v>-0.01058132908465164</v>
       </c>
       <c r="E14">
-        <v>0.02572438301341573</v>
+        <v>0.02404320586292952</v>
       </c>
       <c r="F14">
-        <v>0.009217822571431963</v>
+        <v>0.04050394672543881</v>
       </c>
       <c r="G14">
-        <v>0.03080648732379477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03269775283620874</v>
+      </c>
+      <c r="H14">
+        <v>0.05148484728952364</v>
+      </c>
+      <c r="I14">
+        <v>-0.009558288629473931</v>
+      </c>
+      <c r="J14">
+        <v>-0.01628910504478445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04689987050163624</v>
+        <v>0.04525856268852223</v>
       </c>
       <c r="C16">
-        <v>0.02502094934419474</v>
+        <v>0.03325190900877874</v>
       </c>
       <c r="D16">
-        <v>0.01134783232497633</v>
+        <v>-0.009061811260972146</v>
       </c>
       <c r="E16">
-        <v>0.03455409900894343</v>
+        <v>0.002395073695195206</v>
       </c>
       <c r="F16">
-        <v>-0.003687267720369554</v>
+        <v>0.0332795349940711</v>
       </c>
       <c r="G16">
-        <v>0.007301883132919595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.002648659066970987</v>
+      </c>
+      <c r="H16">
+        <v>0.008674967480946623</v>
+      </c>
+      <c r="I16">
+        <v>0.01213791525592411</v>
+      </c>
+      <c r="J16">
+        <v>-0.0356935602012009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05198975264959857</v>
+        <v>0.04807607616124849</v>
       </c>
       <c r="C19">
-        <v>0.032772901460433</v>
+        <v>0.04249662260647226</v>
       </c>
       <c r="D19">
-        <v>0.002266563007542801</v>
+        <v>-0.01255843124019396</v>
       </c>
       <c r="E19">
-        <v>0.07176375745230471</v>
+        <v>0.01466539031157349</v>
       </c>
       <c r="F19">
-        <v>-0.01674104786968052</v>
+        <v>0.08012855734646358</v>
       </c>
       <c r="G19">
-        <v>0.03462426185703233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01416709510007086</v>
+      </c>
+      <c r="H19">
+        <v>0.08548572382128196</v>
+      </c>
+      <c r="I19">
+        <v>-0.03680285349714604</v>
+      </c>
+      <c r="J19">
+        <v>-0.04797199769104058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03762876539732488</v>
+        <v>0.01943629374717775</v>
       </c>
       <c r="C20">
-        <v>0.03976905021508397</v>
+        <v>0.02842457970294028</v>
       </c>
       <c r="D20">
-        <v>-0.01644617429010748</v>
+        <v>-0.01703735101620441</v>
       </c>
       <c r="E20">
-        <v>0.06511442155200188</v>
+        <v>0.01734968068105307</v>
       </c>
       <c r="F20">
-        <v>-0.01342861705822443</v>
+        <v>0.06565488650431216</v>
       </c>
       <c r="G20">
-        <v>0.01131168564734738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01719743264675663</v>
+      </c>
+      <c r="H20">
+        <v>0.07265251534402566</v>
+      </c>
+      <c r="I20">
+        <v>-0.02060457088193306</v>
+      </c>
+      <c r="J20">
+        <v>-0.07807992205962888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03856155959000756</v>
+        <v>0.02446776633709686</v>
       </c>
       <c r="C21">
-        <v>0.02505456043564429</v>
+        <v>0.02581006420210405</v>
       </c>
       <c r="D21">
-        <v>-0.007442827589758848</v>
+        <v>-0.024821022262118</v>
       </c>
       <c r="E21">
-        <v>0.09508845002646461</v>
+        <v>0.00478570626837096</v>
       </c>
       <c r="F21">
-        <v>0.05012564536671988</v>
+        <v>0.07816206105635125</v>
       </c>
       <c r="G21">
-        <v>0.01707735014676074</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03724000769056426</v>
+      </c>
+      <c r="H21">
+        <v>0.02636974566119074</v>
+      </c>
+      <c r="I21">
+        <v>0.0101708662820956</v>
+      </c>
+      <c r="J21">
+        <v>-0.03066270092246669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04876331977682295</v>
+        <v>0.04421187124973808</v>
       </c>
       <c r="C24">
-        <v>0.01724768728758693</v>
+        <v>0.02261743906484985</v>
       </c>
       <c r="D24">
-        <v>0.0003461686527185374</v>
+        <v>-0.005711569796035017</v>
       </c>
       <c r="E24">
-        <v>0.04315766711266199</v>
+        <v>0.007969489803803567</v>
       </c>
       <c r="F24">
-        <v>-0.002482488491951389</v>
+        <v>0.04012813692928413</v>
       </c>
       <c r="G24">
-        <v>-0.0002241544455350196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.002121097855964993</v>
+      </c>
+      <c r="H24">
+        <v>0.007657529621669297</v>
+      </c>
+      <c r="I24">
+        <v>0.01010802031926982</v>
+      </c>
+      <c r="J24">
+        <v>-0.04184540256043977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04990861330186246</v>
+        <v>0.04673070291304539</v>
       </c>
       <c r="C25">
-        <v>0.007530567436962172</v>
+        <v>0.02277232355039541</v>
       </c>
       <c r="D25">
-        <v>0.003605947523225721</v>
+        <v>-0.004592690933555827</v>
       </c>
       <c r="E25">
-        <v>0.0413820261911264</v>
+        <v>0.006055860382243589</v>
       </c>
       <c r="F25">
-        <v>0.007416737443184583</v>
+        <v>0.04390219754374729</v>
       </c>
       <c r="G25">
-        <v>0.009023481297659404</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.004634985542813652</v>
+      </c>
+      <c r="H25">
+        <v>0.001306421082273515</v>
+      </c>
+      <c r="I25">
+        <v>0.01173976010218937</v>
+      </c>
+      <c r="J25">
+        <v>-0.0338559666261187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01253577700911888</v>
+        <v>0.01620401716381661</v>
       </c>
       <c r="C26">
-        <v>0.02612316752076356</v>
+        <v>0.02480158288486843</v>
       </c>
       <c r="D26">
-        <v>-0.002845455636812519</v>
+        <v>-0.003958234690146702</v>
       </c>
       <c r="E26">
-        <v>0.03624686899728402</v>
+        <v>-0.0005628925273351087</v>
       </c>
       <c r="F26">
-        <v>0.01922086532760871</v>
+        <v>0.04431804656148709</v>
       </c>
       <c r="G26">
-        <v>0.02060513500256471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02253789698299983</v>
+      </c>
+      <c r="H26">
+        <v>0.03149995963845678</v>
+      </c>
+      <c r="I26">
+        <v>0.00640245297103996</v>
+      </c>
+      <c r="J26">
+        <v>-0.03732160816035342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1152811051136897</v>
+        <v>0.08090876557749506</v>
       </c>
       <c r="C27">
-        <v>0.02828647499472747</v>
+        <v>0.03061945204272705</v>
       </c>
       <c r="D27">
-        <v>-0.02491697612974874</v>
+        <v>-0.01289657447863184</v>
       </c>
       <c r="E27">
-        <v>0.09631746503632706</v>
+        <v>0.03145633675622206</v>
       </c>
       <c r="F27">
-        <v>0.009329414094160101</v>
+        <v>0.06881939321529806</v>
       </c>
       <c r="G27">
-        <v>-0.007352790237466245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01791463967935922</v>
+      </c>
+      <c r="H27">
+        <v>0.009616291972245474</v>
+      </c>
+      <c r="I27">
+        <v>-0.01763757578927417</v>
+      </c>
+      <c r="J27">
+        <v>-0.04419203825866039</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.002459527545378992</v>
+        <v>0.03870062548388351</v>
       </c>
       <c r="C28">
-        <v>-0.2437980297523392</v>
+        <v>-0.2228849407678293</v>
       </c>
       <c r="D28">
-        <v>0.01689670428679542</v>
+        <v>0.07923473183926491</v>
       </c>
       <c r="E28">
-        <v>0.04544236708160085</v>
+        <v>-0.02973426978436252</v>
       </c>
       <c r="F28">
-        <v>0.02086738334507901</v>
+        <v>0.05840837352188307</v>
       </c>
       <c r="G28">
-        <v>0.004812724059211114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02572864224843846</v>
+      </c>
+      <c r="H28">
+        <v>-0.007530612655979596</v>
+      </c>
+      <c r="I28">
+        <v>-0.1558426816018993</v>
+      </c>
+      <c r="J28">
+        <v>-0.009333649616542636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02212329433141116</v>
+        <v>0.02245576723192527</v>
       </c>
       <c r="C29">
-        <v>0.01829805763058152</v>
+        <v>0.01697536060058948</v>
       </c>
       <c r="D29">
-        <v>-0.02980811323676301</v>
+        <v>-0.01606563929578144</v>
       </c>
       <c r="E29">
-        <v>0.02496148928838791</v>
+        <v>0.02584082593579352</v>
       </c>
       <c r="F29">
-        <v>0.01608270671882003</v>
+        <v>0.03594859697478343</v>
       </c>
       <c r="G29">
-        <v>0.02588055840493313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03494272126627111</v>
+      </c>
+      <c r="H29">
+        <v>0.04757631515097779</v>
+      </c>
+      <c r="I29">
+        <v>-0.00138602278239303</v>
+      </c>
+      <c r="J29">
+        <v>-0.009232152703178464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1043455731194158</v>
+        <v>0.09363621577650678</v>
       </c>
       <c r="C30">
-        <v>0.01784640616502426</v>
+        <v>0.05719811839096479</v>
       </c>
       <c r="D30">
-        <v>-0.02233296619232942</v>
+        <v>0.02247870163410988</v>
       </c>
       <c r="E30">
-        <v>0.1130537781934812</v>
+        <v>0.02986902964475407</v>
       </c>
       <c r="F30">
-        <v>0.008364995772049542</v>
+        <v>0.1027585704710387</v>
       </c>
       <c r="G30">
-        <v>0.03528572155843818</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01230718278033383</v>
+      </c>
+      <c r="H30">
+        <v>0.02006412998034087</v>
+      </c>
+      <c r="I30">
+        <v>0.01255458309626589</v>
+      </c>
+      <c r="J30">
+        <v>-0.03571539966382062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05910667477850214</v>
+        <v>0.0629099681296706</v>
       </c>
       <c r="C31">
-        <v>0.01506815039708663</v>
+        <v>0.02381219107295978</v>
       </c>
       <c r="D31">
-        <v>-0.02074620301272655</v>
+        <v>0.004568587987489037</v>
       </c>
       <c r="E31">
-        <v>-0.01754658032963159</v>
+        <v>0.02068975082928833</v>
       </c>
       <c r="F31">
-        <v>0.01287769199033334</v>
+        <v>0.001396124725578395</v>
       </c>
       <c r="G31">
-        <v>0.05406113089647983</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04375278692210431</v>
+      </c>
+      <c r="H31">
+        <v>0.02989285087767012</v>
+      </c>
+      <c r="I31">
+        <v>-0.008708362457223165</v>
+      </c>
+      <c r="J31">
+        <v>-0.01325988101177974</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06921459113347464</v>
+        <v>0.04644081198490604</v>
       </c>
       <c r="C32">
-        <v>0.03240265160144968</v>
+        <v>0.04544015521733429</v>
       </c>
       <c r="D32">
-        <v>-0.01190395883883332</v>
+        <v>-0.03065180289058268</v>
       </c>
       <c r="E32">
-        <v>0.107982111177639</v>
+        <v>0.0257609128190355</v>
       </c>
       <c r="F32">
-        <v>-0.006751573277886139</v>
+        <v>0.08740634389918218</v>
       </c>
       <c r="G32">
-        <v>0.02765094488303585</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01566952606635108</v>
+      </c>
+      <c r="H32">
+        <v>0.03940477359944696</v>
+      </c>
+      <c r="I32">
+        <v>-0.0207919565170218</v>
+      </c>
+      <c r="J32">
+        <v>-0.04747302897163106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06967178454420705</v>
+        <v>0.05937349797217122</v>
       </c>
       <c r="C33">
-        <v>0.03855641148586746</v>
+        <v>0.05495956140910555</v>
       </c>
       <c r="D33">
-        <v>-0.009886160834680854</v>
+        <v>0.002203673387778134</v>
       </c>
       <c r="E33">
-        <v>0.06980874839879365</v>
+        <v>0.006789838575970957</v>
       </c>
       <c r="F33">
-        <v>0.0466341169995499</v>
+        <v>0.07711408860018594</v>
       </c>
       <c r="G33">
-        <v>0.01682233583266303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03907313268437264</v>
+      </c>
+      <c r="H33">
+        <v>0.0367575416950261</v>
+      </c>
+      <c r="I33">
+        <v>0.01421661894831092</v>
+      </c>
+      <c r="J33">
+        <v>-0.04835928810518023</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04833426745767656</v>
+        <v>0.04697909437421286</v>
       </c>
       <c r="C34">
-        <v>0.01641289227584101</v>
+        <v>0.02861684474531368</v>
       </c>
       <c r="D34">
-        <v>0.001221115500840281</v>
+        <v>-0.01237609119959643</v>
       </c>
       <c r="E34">
-        <v>0.02429641545970468</v>
+        <v>0.01344416277051676</v>
       </c>
       <c r="F34">
-        <v>-0.00356178327720044</v>
+        <v>0.03039192103808554</v>
       </c>
       <c r="G34">
-        <v>0.01030082102470216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.003506418528813852</v>
+      </c>
+      <c r="H34">
+        <v>0.01074952491953704</v>
+      </c>
+      <c r="I34">
+        <v>0.01156702888778308</v>
+      </c>
+      <c r="J34">
+        <v>-0.0306056180391224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01234886567622247</v>
+        <v>0.01617264813501913</v>
       </c>
       <c r="C36">
-        <v>-0.007543400037468244</v>
+        <v>0.000960229332160647</v>
       </c>
       <c r="D36">
-        <v>-0.008071609388197157</v>
+        <v>-0.004900323022805081</v>
       </c>
       <c r="E36">
-        <v>0.02238670610618071</v>
+        <v>0.009032249152742372</v>
       </c>
       <c r="F36">
-        <v>0.007854770237699748</v>
+        <v>0.02808328689033869</v>
       </c>
       <c r="G36">
-        <v>0.01847061446861712</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02478977074462631</v>
+      </c>
+      <c r="H36">
+        <v>0.02769948438271153</v>
+      </c>
+      <c r="I36">
+        <v>0.004641659421996705</v>
+      </c>
+      <c r="J36">
+        <v>-0.00166690320863826</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05548334064722301</v>
+        <v>0.03507464290098587</v>
       </c>
       <c r="C38">
-        <v>0.01147165801705386</v>
+        <v>0.01354182960934924</v>
       </c>
       <c r="D38">
-        <v>-0.02481987996476828</v>
+        <v>-0.007297207890068191</v>
       </c>
       <c r="E38">
-        <v>0.03397658615007297</v>
+        <v>0.01123862809768577</v>
       </c>
       <c r="F38">
-        <v>0.0007535423701440651</v>
+        <v>0.05076369737295575</v>
       </c>
       <c r="G38">
-        <v>-0.02465143787023578</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02838840051104752</v>
+      </c>
+      <c r="H38">
+        <v>0.01478398341581318</v>
+      </c>
+      <c r="I38">
+        <v>0.01334804698702204</v>
+      </c>
+      <c r="J38">
+        <v>-0.001494541982658917</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07464966235127826</v>
+        <v>0.05882232480685504</v>
       </c>
       <c r="C39">
-        <v>0.01459075346834313</v>
+        <v>0.04081783778470219</v>
       </c>
       <c r="D39">
-        <v>-0.004047318783888323</v>
+        <v>-0.007040152944972175</v>
       </c>
       <c r="E39">
-        <v>0.04191249028623462</v>
+        <v>0.01469816694307445</v>
       </c>
       <c r="F39">
-        <v>0.02027401246212502</v>
+        <v>0.05581672010301846</v>
       </c>
       <c r="G39">
-        <v>0.00935973086500912</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01805735509086539</v>
+      </c>
+      <c r="H39">
+        <v>0.0006890869114743184</v>
+      </c>
+      <c r="I39">
+        <v>0.03325718870151047</v>
+      </c>
+      <c r="J39">
+        <v>-0.04408825481427339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07584627964689349</v>
+        <v>0.05805460236478001</v>
       </c>
       <c r="C40">
-        <v>0.03560710471427021</v>
+        <v>0.04692115397011341</v>
       </c>
       <c r="D40">
-        <v>-0.008014500027657233</v>
+        <v>0.006885979935490112</v>
       </c>
       <c r="E40">
-        <v>0.1033222789223958</v>
+        <v>0.02072457132121045</v>
       </c>
       <c r="F40">
-        <v>0.03007522030030713</v>
+        <v>0.09476763886564203</v>
       </c>
       <c r="G40">
-        <v>-0.03104174252854806</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02681363576792635</v>
+      </c>
+      <c r="H40">
+        <v>0.05304354585075928</v>
+      </c>
+      <c r="I40">
+        <v>-0.00806390173399895</v>
+      </c>
+      <c r="J40">
+        <v>-0.1166060758344896</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.002667185878781481</v>
+        <v>0.003186576113491253</v>
       </c>
       <c r="C41">
-        <v>0.013136557429391</v>
+        <v>0.01062008202677015</v>
       </c>
       <c r="D41">
-        <v>-0.02387725864750053</v>
+        <v>-0.004452211917704351</v>
       </c>
       <c r="E41">
-        <v>0.01339875934281441</v>
+        <v>0.00706986404835705</v>
       </c>
       <c r="F41">
-        <v>0.0315340123799078</v>
+        <v>0.0142107909004668</v>
       </c>
       <c r="G41">
-        <v>0.02787388151875527</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03923863313338691</v>
+      </c>
+      <c r="H41">
+        <v>0.03062138060893686</v>
+      </c>
+      <c r="I41">
+        <v>-0.02049819262590418</v>
+      </c>
+      <c r="J41">
+        <v>-0.01128728035620614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1313504005731664</v>
+        <v>0.21549738104432</v>
       </c>
       <c r="C42">
-        <v>0.1798835742584569</v>
+        <v>0.1642842657379976</v>
       </c>
       <c r="D42">
-        <v>0.9342899598887138</v>
+        <v>0.01570099195040956</v>
       </c>
       <c r="E42">
-        <v>-0.06975912191092079</v>
+        <v>-0.9345026801171472</v>
       </c>
       <c r="F42">
-        <v>-0.02333211168729817</v>
+        <v>-0.1502498985366056</v>
       </c>
       <c r="G42">
-        <v>0.07799685014334064</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.0001959295030598517</v>
+      </c>
+      <c r="H42">
+        <v>0.001669904756844089</v>
+      </c>
+      <c r="I42">
+        <v>-0.04735008133721827</v>
+      </c>
+      <c r="J42">
+        <v>-0.02596666664361443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.006285990002874502</v>
+        <v>0.005779074537711767</v>
       </c>
       <c r="C43">
-        <v>0.01694276728799826</v>
+        <v>0.01492207697461614</v>
       </c>
       <c r="D43">
-        <v>-0.01740105396009223</v>
+        <v>-0.003120736373679485</v>
       </c>
       <c r="E43">
-        <v>0.0351785838284181</v>
+        <v>0.007640593698921908</v>
       </c>
       <c r="F43">
-        <v>0.007128923519447458</v>
+        <v>0.02850031792914349</v>
       </c>
       <c r="G43">
-        <v>0.02299386870661638</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02253546833767803</v>
+      </c>
+      <c r="H43">
+        <v>0.03067445205662182</v>
+      </c>
+      <c r="I43">
+        <v>-0.01288566929551182</v>
+      </c>
+      <c r="J43">
+        <v>-0.02039765671110923</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03935994909467825</v>
+        <v>0.02877979562527271</v>
       </c>
       <c r="C44">
-        <v>0.04443300872706057</v>
+        <v>0.04092292700341123</v>
       </c>
       <c r="D44">
-        <v>-0.01350073746515365</v>
+        <v>-0.01577701826525368</v>
       </c>
       <c r="E44">
-        <v>0.1198213218947747</v>
+        <v>0.007247952701954326</v>
       </c>
       <c r="F44">
-        <v>0.09167814328362028</v>
+        <v>0.1218152966142248</v>
       </c>
       <c r="G44">
-        <v>0.03519322245493101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06686927795649908</v>
+      </c>
+      <c r="H44">
+        <v>0.1020496427542445</v>
+      </c>
+      <c r="I44">
+        <v>-0.02609825117856289</v>
+      </c>
+      <c r="J44">
+        <v>-0.03063403475100717</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02684425102492061</v>
+        <v>0.02526403108656651</v>
       </c>
       <c r="C46">
-        <v>0.01601199933971052</v>
+        <v>0.03421866324772659</v>
       </c>
       <c r="D46">
-        <v>-0.02690123661021923</v>
+        <v>-0.009426559147050205</v>
       </c>
       <c r="E46">
-        <v>0.021503256305053</v>
+        <v>0.0258734178131768</v>
       </c>
       <c r="F46">
-        <v>0.02433626371484605</v>
+        <v>0.04555179442129704</v>
       </c>
       <c r="G46">
-        <v>0.03308894581355412</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03022607407539711</v>
+      </c>
+      <c r="H46">
+        <v>0.05238864064694698</v>
+      </c>
+      <c r="I46">
+        <v>0.0006625341175188695</v>
+      </c>
+      <c r="J46">
+        <v>-0.02026852032639759</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08734374452185142</v>
+        <v>0.09213645780675882</v>
       </c>
       <c r="C47">
-        <v>0.009432447361114489</v>
+        <v>0.01872570575226295</v>
       </c>
       <c r="D47">
-        <v>-0.01882995244296591</v>
+        <v>0.001700399521948974</v>
       </c>
       <c r="E47">
-        <v>-0.02389216225434414</v>
+        <v>0.02430351190707706</v>
       </c>
       <c r="F47">
-        <v>0.009426350279786557</v>
+        <v>-0.01237761756232154</v>
       </c>
       <c r="G47">
-        <v>0.03322166677684961</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.0469697344745329</v>
+      </c>
+      <c r="H47">
+        <v>0.05318085621737954</v>
+      </c>
+      <c r="I47">
+        <v>-0.01342983164382314</v>
+      </c>
+      <c r="J47">
+        <v>-0.02231644405377233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01704423509290853</v>
+        <v>0.01919792456775922</v>
       </c>
       <c r="C48">
-        <v>0.02025242481881887</v>
+        <v>0.0198474581223245</v>
       </c>
       <c r="D48">
-        <v>-0.01668757670411837</v>
+        <v>-0.008325759369197779</v>
       </c>
       <c r="E48">
-        <v>0.02814118121725047</v>
+        <v>0.01210457597482897</v>
       </c>
       <c r="F48">
-        <v>0.01009798028352619</v>
+        <v>0.03021272012537166</v>
       </c>
       <c r="G48">
-        <v>0.00635497226524133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.0166815932147692</v>
+      </c>
+      <c r="H48">
+        <v>0.0225802416518916</v>
+      </c>
+      <c r="I48">
+        <v>-0.0101921619095349</v>
+      </c>
+      <c r="J48">
+        <v>-0.01222700321785276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.0867014183333205</v>
+        <v>0.08867393084056227</v>
       </c>
       <c r="C50">
-        <v>0.03504666783402345</v>
+        <v>0.03194004818821063</v>
       </c>
       <c r="D50">
-        <v>-0.02528434108084107</v>
+        <v>-0.01991286565222589</v>
       </c>
       <c r="E50">
-        <v>-0.0167583897997914</v>
+        <v>0.02180787963627578</v>
       </c>
       <c r="F50">
-        <v>-0.0007253940441380697</v>
+        <v>-0.005682337190831829</v>
       </c>
       <c r="G50">
-        <v>0.04015927554982805</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.006816392766693804</v>
+      </c>
+      <c r="H50">
+        <v>0.04056413405000751</v>
+      </c>
+      <c r="I50">
+        <v>0.01163190671121126</v>
+      </c>
+      <c r="J50">
+        <v>-0.003365821954847993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06608256933243756</v>
+        <v>0.04701010029719349</v>
       </c>
       <c r="C51">
-        <v>-0.01962550731748607</v>
+        <v>0.003794636829037044</v>
       </c>
       <c r="D51">
-        <v>-0.0008559953556769655</v>
+        <v>0.01344920038801574</v>
       </c>
       <c r="E51">
-        <v>0.08583082904208759</v>
+        <v>0.01150051023619446</v>
       </c>
       <c r="F51">
-        <v>0.05539437488939273</v>
+        <v>0.09482968155312374</v>
       </c>
       <c r="G51">
-        <v>0.06713832977880439</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05766230984062044</v>
+      </c>
+      <c r="H51">
+        <v>0.04504504154661302</v>
+      </c>
+      <c r="I51">
+        <v>-0.02352346268049743</v>
+      </c>
+      <c r="J51">
+        <v>-0.04228524283901867</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1446268540487903</v>
+        <v>0.1278714954212676</v>
       </c>
       <c r="C53">
-        <v>0.009818900577242976</v>
+        <v>0.03611860269343559</v>
       </c>
       <c r="D53">
-        <v>-0.04323678409405793</v>
+        <v>-0.002312428743984708</v>
       </c>
       <c r="E53">
-        <v>-0.04837999016069981</v>
+        <v>0.0465206803671427</v>
       </c>
       <c r="F53">
-        <v>-0.008512193620608162</v>
+        <v>-0.04198423418418845</v>
       </c>
       <c r="G53">
-        <v>0.03802438442198287</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02595926015119783</v>
+      </c>
+      <c r="H53">
+        <v>-0.002087390566871432</v>
+      </c>
+      <c r="I53">
+        <v>-0.03275694790441316</v>
+      </c>
+      <c r="J53">
+        <v>-0.03305360725064344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02812669650020767</v>
+        <v>0.02632499496948445</v>
       </c>
       <c r="C54">
-        <v>-0.0009212657443523881</v>
+        <v>0.002421595014751399</v>
       </c>
       <c r="D54">
-        <v>-0.03210279022736161</v>
+        <v>-0.005717834472929025</v>
       </c>
       <c r="E54">
-        <v>0.03030134208361758</v>
+        <v>0.02683495587806035</v>
       </c>
       <c r="F54">
-        <v>0.0479803935267676</v>
+        <v>0.03762468960829779</v>
       </c>
       <c r="G54">
-        <v>0.01134969375578392</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05444426719023839</v>
+      </c>
+      <c r="H54">
+        <v>0.0389594693549618</v>
+      </c>
+      <c r="I54">
+        <v>-0.02935193062267741</v>
+      </c>
+      <c r="J54">
+        <v>0.002899834226616187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09750759082194567</v>
+        <v>0.1014826631474808</v>
       </c>
       <c r="C55">
-        <v>-0.002338800017241835</v>
+        <v>0.01770434205884049</v>
       </c>
       <c r="D55">
-        <v>-0.03520618423159232</v>
+        <v>-0.01599828213383324</v>
       </c>
       <c r="E55">
-        <v>-0.008171992404409705</v>
+        <v>0.03050311325835859</v>
       </c>
       <c r="F55">
-        <v>-0.0361240009499606</v>
+        <v>-0.02933446305639797</v>
       </c>
       <c r="G55">
-        <v>-0.01555421838289376</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.004586460659831278</v>
+      </c>
+      <c r="H55">
+        <v>0.01439126731983738</v>
+      </c>
+      <c r="I55">
+        <v>-0.01453661863548618</v>
+      </c>
+      <c r="J55">
+        <v>-0.03234608270203093</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1781581042380313</v>
+        <v>0.1693106543566117</v>
       </c>
       <c r="C56">
-        <v>-0.01306757313624108</v>
+        <v>0.01665094107910496</v>
       </c>
       <c r="D56">
-        <v>-0.07697957585889036</v>
+        <v>-0.004129683990301519</v>
       </c>
       <c r="E56">
-        <v>-0.09398931899822041</v>
+        <v>0.08312208494416597</v>
       </c>
       <c r="F56">
-        <v>-0.0834587754371412</v>
+        <v>-0.08737971161425545</v>
       </c>
       <c r="G56">
-        <v>-0.0005898559593135972</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02861716246463208</v>
+      </c>
+      <c r="H56">
+        <v>-0.04069525994935484</v>
+      </c>
+      <c r="I56">
+        <v>-0.02448531840839304</v>
+      </c>
+      <c r="J56">
+        <v>-0.04427215122040234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09095884599922409</v>
+        <v>0.0719867776194224</v>
       </c>
       <c r="C57">
-        <v>0.02986257846474418</v>
+        <v>0.03974298873883924</v>
       </c>
       <c r="D57">
-        <v>-0.02537326790457716</v>
+        <v>0.005293782414110448</v>
       </c>
       <c r="E57">
-        <v>0.04912177254829446</v>
+        <v>0.01056347579683273</v>
       </c>
       <c r="F57">
-        <v>0.02654188359745947</v>
+        <v>0.06113094267127955</v>
       </c>
       <c r="G57">
-        <v>0.02741562081899459</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02326818563418</v>
+      </c>
+      <c r="H57">
+        <v>0.02869711430150816</v>
+      </c>
+      <c r="I57">
+        <v>0.005644017811745648</v>
+      </c>
+      <c r="J57">
+        <v>-0.04306648974855302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1788877171394969</v>
+        <v>0.2044410248332865</v>
       </c>
       <c r="C58">
-        <v>0.01713414233047259</v>
+        <v>0.1120615116593355</v>
       </c>
       <c r="D58">
-        <v>0.04057704068707374</v>
+        <v>0.05956860446707397</v>
       </c>
       <c r="E58">
-        <v>0.1203644834606619</v>
+        <v>-0.01082165055796515</v>
       </c>
       <c r="F58">
-        <v>-0.06471364743434223</v>
+        <v>0.2362866082964008</v>
       </c>
       <c r="G58">
-        <v>0.04637687593744343</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.148530101383001</v>
+      </c>
+      <c r="H58">
+        <v>0.3725439927210883</v>
+      </c>
+      <c r="I58">
+        <v>0.09820359531451842</v>
+      </c>
+      <c r="J58">
+        <v>0.7667514905923666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01275586918439125</v>
+        <v>0.03955265879947598</v>
       </c>
       <c r="C59">
-        <v>-0.2015347279280962</v>
+        <v>-0.179387300110016</v>
       </c>
       <c r="D59">
-        <v>-0.01366254831248191</v>
+        <v>0.08344701165182791</v>
       </c>
       <c r="E59">
-        <v>0.05956629343554206</v>
+        <v>0.006784072379336202</v>
       </c>
       <c r="F59">
-        <v>0.0124162283874261</v>
+        <v>0.07336187919334222</v>
       </c>
       <c r="G59">
-        <v>0.01138772132280948</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.004430785539995233</v>
+      </c>
+      <c r="H59">
+        <v>-0.02073669083257142</v>
+      </c>
+      <c r="I59">
+        <v>-0.05975343680632226</v>
+      </c>
+      <c r="J59">
+        <v>0.01320685003132049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1880464473635681</v>
+        <v>0.1842559382361695</v>
       </c>
       <c r="C60">
-        <v>-0.09609563122064274</v>
+        <v>-0.02827821387716072</v>
       </c>
       <c r="D60">
-        <v>-0.009500151601682938</v>
+        <v>0.06420055735701224</v>
       </c>
       <c r="E60">
-        <v>0.1894790330073362</v>
+        <v>0.01363876553414434</v>
       </c>
       <c r="F60">
-        <v>0.0559984662911</v>
+        <v>0.2070752171828439</v>
       </c>
       <c r="G60">
-        <v>0.002150581895534498</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.09071372093411516</v>
+      </c>
+      <c r="H60">
+        <v>-0.2584222652246986</v>
+      </c>
+      <c r="I60">
+        <v>0.09428518097742689</v>
+      </c>
+      <c r="J60">
+        <v>-0.01592577627637885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.05004911003199643</v>
+        <v>0.04003110679933038</v>
       </c>
       <c r="C61">
-        <v>0.003380255382066273</v>
+        <v>0.02397474128501377</v>
       </c>
       <c r="D61">
-        <v>0.003155153393219302</v>
+        <v>-0.008023247203911203</v>
       </c>
       <c r="E61">
-        <v>0.03982613641421858</v>
+        <v>0.004684270920914757</v>
       </c>
       <c r="F61">
-        <v>0.008566730447165726</v>
+        <v>0.03921155271027881</v>
       </c>
       <c r="G61">
-        <v>0.006344440318645358</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.009152075734864941</v>
+      </c>
+      <c r="H61">
+        <v>-0.0009040807378864343</v>
+      </c>
+      <c r="I61">
+        <v>0.03545929290212677</v>
+      </c>
+      <c r="J61">
+        <v>-0.02239539579718563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04698859878687909</v>
+        <v>0.03267551679209692</v>
       </c>
       <c r="C63">
-        <v>0.003664634358284713</v>
+        <v>0.01869710627101967</v>
       </c>
       <c r="D63">
-        <v>-0.02129192342232983</v>
+        <v>-0.004399381265080577</v>
       </c>
       <c r="E63">
-        <v>0.03465236467150114</v>
+        <v>0.01410722371377472</v>
       </c>
       <c r="F63">
-        <v>0.003423903389042252</v>
+        <v>0.02711194249491283</v>
       </c>
       <c r="G63">
-        <v>0.02600147237062859</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01816142645522528</v>
+      </c>
+      <c r="H63">
+        <v>0.04174186410976939</v>
+      </c>
+      <c r="I63">
+        <v>-0.02517387210147325</v>
+      </c>
+      <c r="J63">
+        <v>-0.03299479001721195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08448014901267713</v>
+        <v>0.05796990935417309</v>
       </c>
       <c r="C64">
-        <v>0.0477248855535362</v>
+        <v>0.04391067468840522</v>
       </c>
       <c r="D64">
-        <v>-0.06246033266682958</v>
+        <v>-0.02937050901204365</v>
       </c>
       <c r="E64">
-        <v>0.05546550798315159</v>
+        <v>0.04023392738860006</v>
       </c>
       <c r="F64">
-        <v>0.05890180764466369</v>
+        <v>0.05002199069814348</v>
       </c>
       <c r="G64">
-        <v>-0.01929441365170005</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0564414034239</v>
+      </c>
+      <c r="H64">
+        <v>-0.006801318634080733</v>
+      </c>
+      <c r="I64">
+        <v>-0.02368992568477207</v>
+      </c>
+      <c r="J64">
+        <v>-0.09765890589498759</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01960615526104018</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.007846193729323533</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.009566368663993271</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.004464428541078901</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.00139406659415822</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02261302178663274</v>
+      </c>
+      <c r="H65">
+        <v>0.0004948164057989029</v>
+      </c>
+      <c r="I65">
+        <v>0.01207164832764611</v>
+      </c>
+      <c r="J65">
+        <v>-0.002362897975469557</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09374488966173661</v>
+        <v>0.07030563654520287</v>
       </c>
       <c r="C66">
-        <v>0.02920068748829839</v>
+        <v>0.05764177346095941</v>
       </c>
       <c r="D66">
-        <v>-0.03895668086756447</v>
+        <v>-0.004487792359670855</v>
       </c>
       <c r="E66">
-        <v>0.07688138271259751</v>
+        <v>0.04291306855038928</v>
       </c>
       <c r="F66">
-        <v>0.04339625199014562</v>
+        <v>0.0696675374042829</v>
       </c>
       <c r="G66">
-        <v>0.01835416381817071</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01682134686650065</v>
+      </c>
+      <c r="H66">
+        <v>-0.001826418896366938</v>
+      </c>
+      <c r="I66">
+        <v>0.04472855321066554</v>
+      </c>
+      <c r="J66">
+        <v>-0.06936047019734147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06252714459579135</v>
+        <v>0.04685787239361884</v>
       </c>
       <c r="C67">
-        <v>-0.01304475797543363</v>
+        <v>-0.001990644334273794</v>
       </c>
       <c r="D67">
-        <v>-0.01076713709592029</v>
+        <v>0.002643168492435575</v>
       </c>
       <c r="E67">
-        <v>0.0300708158234766</v>
+        <v>0.00981292219903912</v>
       </c>
       <c r="F67">
-        <v>0.005537805745819825</v>
+        <v>0.04048584587702054</v>
       </c>
       <c r="G67">
-        <v>-0.03688106191468568</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03364386378527642</v>
+      </c>
+      <c r="H67">
+        <v>-0.008769657165781451</v>
+      </c>
+      <c r="I67">
+        <v>0.04230190377161851</v>
+      </c>
+      <c r="J67">
+        <v>-0.01014101660055374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01294153914557566</v>
+        <v>0.04540736987747915</v>
       </c>
       <c r="C68">
-        <v>-0.2501392781049434</v>
+        <v>-0.2203747369350842</v>
       </c>
       <c r="D68">
-        <v>0.003996046604440461</v>
+        <v>0.09453661281316106</v>
       </c>
       <c r="E68">
-        <v>0.04200486715586247</v>
+        <v>-0.007673398751804682</v>
       </c>
       <c r="F68">
-        <v>0.003378957808006198</v>
+        <v>0.05691489263173988</v>
       </c>
       <c r="G68">
-        <v>0.02518205794862018</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.003373803584153869</v>
+      </c>
+      <c r="H68">
+        <v>-0.01476560261973824</v>
+      </c>
+      <c r="I68">
+        <v>-0.1738841034235716</v>
+      </c>
+      <c r="J68">
+        <v>0.05241575984407572</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07328563769058528</v>
+        <v>0.07338608828666271</v>
       </c>
       <c r="C69">
-        <v>0.01329693091723827</v>
+        <v>0.02264394374043191</v>
       </c>
       <c r="D69">
-        <v>-0.02202842449599995</v>
+        <v>-0.0002470628887214707</v>
       </c>
       <c r="E69">
-        <v>-0.01693203473467916</v>
+        <v>0.02969775378095014</v>
       </c>
       <c r="F69">
-        <v>-0.0009395902050404507</v>
+        <v>-0.00239693892831599</v>
       </c>
       <c r="G69">
-        <v>0.02956370182782746</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02869176786901088</v>
+      </c>
+      <c r="H69">
+        <v>0.02532136689799785</v>
+      </c>
+      <c r="I69">
+        <v>0.007787926740531958</v>
+      </c>
+      <c r="J69">
+        <v>-0.02839746692065735</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.01256341420085812</v>
+        <v>0.05175669635664087</v>
       </c>
       <c r="C71">
-        <v>-0.2725888717701938</v>
+        <v>-0.2296120445217444</v>
       </c>
       <c r="D71">
-        <v>0.003500507503327646</v>
+        <v>0.1052516968733365</v>
       </c>
       <c r="E71">
-        <v>0.0852127112310921</v>
+        <v>-0.02537410302160358</v>
       </c>
       <c r="F71">
-        <v>0.01705071320076753</v>
+        <v>0.08320852279111181</v>
       </c>
       <c r="G71">
-        <v>0.03388161733649463</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01252244822504976</v>
+      </c>
+      <c r="H71">
+        <v>-0.03288846226925137</v>
+      </c>
+      <c r="I71">
+        <v>-0.1293621911426435</v>
+      </c>
+      <c r="J71">
+        <v>0.01837144136205741</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1154185945188421</v>
+        <v>0.1221166516698359</v>
       </c>
       <c r="C72">
-        <v>-0.00408519458899928</v>
+        <v>0.02938964890040833</v>
       </c>
       <c r="D72">
-        <v>-0.03807315701941876</v>
+        <v>-0.0005903490178335307</v>
       </c>
       <c r="E72">
-        <v>0.09863910112415994</v>
+        <v>0.05796709413933317</v>
       </c>
       <c r="F72">
-        <v>-0.009225065823072124</v>
+        <v>0.08294438020121755</v>
       </c>
       <c r="G72">
-        <v>-0.01854041784937922</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04806528841806975</v>
+      </c>
+      <c r="H72">
+        <v>0.0001411597717988885</v>
+      </c>
+      <c r="I72">
+        <v>0.0523764528124292</v>
+      </c>
+      <c r="J72">
+        <v>0.08861086772305365</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2895474665543133</v>
+        <v>0.2704019296531474</v>
       </c>
       <c r="C73">
-        <v>-0.1635707443530561</v>
+        <v>-0.04964214526594618</v>
       </c>
       <c r="D73">
-        <v>0.04156718584202814</v>
+        <v>0.1193075563162402</v>
       </c>
       <c r="E73">
-        <v>0.3371459312487355</v>
+        <v>-0.02683106904988279</v>
       </c>
       <c r="F73">
-        <v>0.04921781295425726</v>
+        <v>0.3113391742233288</v>
       </c>
       <c r="G73">
-        <v>-0.03654247908143882</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2051303605618383</v>
+      </c>
+      <c r="H73">
+        <v>-0.4555224938346071</v>
+      </c>
+      <c r="I73">
+        <v>0.3013483342659364</v>
+      </c>
+      <c r="J73">
+        <v>-0.01925358415846543</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1609271746321341</v>
+        <v>0.1523373752221099</v>
       </c>
       <c r="C74">
-        <v>-0.002329426050916794</v>
+        <v>0.02708677583581482</v>
       </c>
       <c r="D74">
-        <v>-0.04176422323867685</v>
+        <v>0.00740858978456508</v>
       </c>
       <c r="E74">
-        <v>-0.01941892586089569</v>
+        <v>0.04571424771648411</v>
       </c>
       <c r="F74">
-        <v>-0.0596913736654487</v>
+        <v>-0.05470332904469417</v>
       </c>
       <c r="G74">
-        <v>0.05164355133593652</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01774444598137274</v>
+      </c>
+      <c r="H74">
+        <v>-0.02845572802594465</v>
+      </c>
+      <c r="I74">
+        <v>-0.006115114204618102</v>
+      </c>
+      <c r="J74">
+        <v>-0.08559568459379847</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2339514372294888</v>
+        <v>0.2434539354553542</v>
       </c>
       <c r="C75">
-        <v>-0.01174069265334128</v>
+        <v>0.02652893049993012</v>
       </c>
       <c r="D75">
-        <v>-0.06560224008669677</v>
+        <v>0.02269428888159654</v>
       </c>
       <c r="E75">
-        <v>-0.1284218861188231</v>
+        <v>0.1027780670235491</v>
       </c>
       <c r="F75">
-        <v>-0.04430298613966217</v>
+        <v>-0.14939910094221</v>
       </c>
       <c r="G75">
-        <v>0.0433103220325503</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.005502951062611206</v>
+      </c>
+      <c r="H75">
+        <v>-0.02110090247321947</v>
+      </c>
+      <c r="I75">
+        <v>-0.08600219604874736</v>
+      </c>
+      <c r="J75">
+        <v>-0.02845754298818044</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2463218844819913</v>
+        <v>0.2670925448371201</v>
       </c>
       <c r="C76">
-        <v>-0.01280740350844251</v>
+        <v>0.01334663230171283</v>
       </c>
       <c r="D76">
-        <v>-0.1005950509757449</v>
+        <v>-0.01230372675955261</v>
       </c>
       <c r="E76">
-        <v>-0.1271282831301149</v>
+        <v>0.1274654794362546</v>
       </c>
       <c r="F76">
-        <v>-0.07698767934681684</v>
+        <v>-0.1806190416096779</v>
       </c>
       <c r="G76">
-        <v>0.03571051195260024</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04936376136241843</v>
+      </c>
+      <c r="H76">
+        <v>-0.04329378030818948</v>
+      </c>
+      <c r="I76">
+        <v>-0.01687767855413619</v>
+      </c>
+      <c r="J76">
+        <v>-0.06684613155057702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1363371840526814</v>
+        <v>0.1312692372293265</v>
       </c>
       <c r="C77">
-        <v>0.02791991182802621</v>
+        <v>0.06638559455306596</v>
       </c>
       <c r="D77">
-        <v>0.04488362590207428</v>
+        <v>-0.01153192986564391</v>
       </c>
       <c r="E77">
-        <v>0.1503253734489375</v>
+        <v>-0.04170134733171418</v>
       </c>
       <c r="F77">
-        <v>0.002699601176323087</v>
+        <v>0.1594522848291841</v>
       </c>
       <c r="G77">
-        <v>-0.05661681257156354</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01252331629713974</v>
+      </c>
+      <c r="H77">
+        <v>0.2023505771039411</v>
+      </c>
+      <c r="I77">
+        <v>-0.1848026902744935</v>
+      </c>
+      <c r="J77">
+        <v>-0.106817627300127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08761186373037511</v>
+        <v>0.08208539189488828</v>
       </c>
       <c r="C78">
-        <v>0.04284698764221575</v>
+        <v>0.07112072246614815</v>
       </c>
       <c r="D78">
-        <v>0.01794773617773837</v>
+        <v>-0.0288588961698317</v>
       </c>
       <c r="E78">
-        <v>0.04897856761243859</v>
+        <v>0.003647990640611456</v>
       </c>
       <c r="F78">
-        <v>0.009786608403886302</v>
+        <v>0.07241436429798903</v>
       </c>
       <c r="G78">
-        <v>0.01774107611388188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01142429245705392</v>
+      </c>
+      <c r="H78">
+        <v>0.02849019543709835</v>
+      </c>
+      <c r="I78">
+        <v>-0.02648869607480968</v>
+      </c>
+      <c r="J78">
+        <v>-0.04716961672587405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07101503806178786</v>
+        <v>0.1511729757088517</v>
       </c>
       <c r="C80">
-        <v>0.02052921593291104</v>
+        <v>-0.3642781907567493</v>
       </c>
       <c r="D80">
-        <v>0.02962945238835406</v>
+        <v>-0.9017794018630608</v>
       </c>
       <c r="E80">
-        <v>-0.03173029418775303</v>
+        <v>-0.06212619035076978</v>
       </c>
       <c r="F80">
-        <v>-0.1469842452007137</v>
+        <v>0.04834403317931642</v>
       </c>
       <c r="G80">
-        <v>-0.9355534563608841</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03970491968658263</v>
+      </c>
+      <c r="H80">
+        <v>-0.0574228921054242</v>
+      </c>
+      <c r="I80">
+        <v>0.0242933256911932</v>
+      </c>
+      <c r="J80">
+        <v>0.1014586011219787</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1640093959156092</v>
+        <v>0.1794415307757131</v>
       </c>
       <c r="C81">
-        <v>-0.01182563767286262</v>
+        <v>0.006687446453634261</v>
       </c>
       <c r="D81">
-        <v>-0.05824712723849609</v>
+        <v>0.006020769613895532</v>
       </c>
       <c r="E81">
-        <v>-0.1612895891300737</v>
+        <v>0.08395036296981391</v>
       </c>
       <c r="F81">
-        <v>-0.1084303189977519</v>
+        <v>-0.1645580071655856</v>
       </c>
       <c r="G81">
-        <v>0.03370533678773079</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02885764296953764</v>
+      </c>
+      <c r="H81">
+        <v>-0.009592276676431718</v>
+      </c>
+      <c r="I81">
+        <v>-0.05367048748993959</v>
+      </c>
+      <c r="J81">
+        <v>-0.01005690844804025</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09337417884794615</v>
+        <v>0.07009956939390249</v>
       </c>
       <c r="C83">
-        <v>0.0473391754894781</v>
+        <v>0.05063133911537655</v>
       </c>
       <c r="D83">
-        <v>0.0761340719229759</v>
+        <v>-0.001231254336969194</v>
       </c>
       <c r="E83">
-        <v>0.009535006934378575</v>
+        <v>-0.03988568153723077</v>
       </c>
       <c r="F83">
-        <v>0.06029577021201024</v>
+        <v>0.04384454518640737</v>
       </c>
       <c r="G83">
-        <v>0.01988155721743096</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06125030669725753</v>
+      </c>
+      <c r="H83">
+        <v>0.01837819711705956</v>
+      </c>
+      <c r="I83">
+        <v>-0.01892746313132093</v>
+      </c>
+      <c r="J83">
+        <v>-0.07832280370198921</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2334298588816428</v>
+        <v>0.2506995634369495</v>
       </c>
       <c r="C85">
-        <v>0.04762399359965015</v>
+        <v>0.05030762173274356</v>
       </c>
       <c r="D85">
-        <v>-0.05867538310920808</v>
+        <v>-0.00900796655111547</v>
       </c>
       <c r="E85">
-        <v>-0.1584321068198967</v>
+        <v>0.08643286476346566</v>
       </c>
       <c r="F85">
-        <v>-0.06879028941397584</v>
+        <v>-0.1852561605329462</v>
       </c>
       <c r="G85">
-        <v>0.02132553122649184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.006163765396688764</v>
+      </c>
+      <c r="H85">
+        <v>0.02029970707413317</v>
+      </c>
+      <c r="I85">
+        <v>-0.04587668008284243</v>
+      </c>
+      <c r="J85">
+        <v>-0.08002819172054439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04284688336799235</v>
+        <v>0.02682280158350055</v>
       </c>
       <c r="C86">
-        <v>0.05015479941550674</v>
+        <v>0.06255999553244546</v>
       </c>
       <c r="D86">
-        <v>-0.01585077515862278</v>
+        <v>-0.02287153678317515</v>
       </c>
       <c r="E86">
-        <v>0.06203110134456411</v>
+        <v>0.009448722923439738</v>
       </c>
       <c r="F86">
-        <v>-0.0001100103078498116</v>
+        <v>0.067323182376349</v>
       </c>
       <c r="G86">
-        <v>0.03645645537653084</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.008069281135229082</v>
+      </c>
+      <c r="H86">
+        <v>0.06642385654187052</v>
+      </c>
+      <c r="I86">
+        <v>-0.02864145002090126</v>
+      </c>
+      <c r="J86">
+        <v>-0.04334677614813085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02477383320578296</v>
+        <v>0.03525576692961144</v>
       </c>
       <c r="C87">
-        <v>-0.05043810180167707</v>
+        <v>-0.01033597299178197</v>
       </c>
       <c r="D87">
-        <v>-0.00822369153911953</v>
+        <v>0.008336585851545659</v>
       </c>
       <c r="E87">
-        <v>0.09216045259644449</v>
+        <v>0.004810849943353871</v>
       </c>
       <c r="F87">
-        <v>-0.0209916710940616</v>
+        <v>0.10203255925011</v>
       </c>
       <c r="G87">
-        <v>0.02796577810042952</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02189883234159578</v>
+      </c>
+      <c r="H87">
+        <v>0.02009598713026214</v>
+      </c>
+      <c r="I87">
+        <v>0.01541615632810634</v>
+      </c>
+      <c r="J87">
+        <v>-0.01467158775737612</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03975972281750084</v>
+        <v>0.02896780722504119</v>
       </c>
       <c r="C88">
-        <v>0.03291764190450838</v>
+        <v>0.01648745404075844</v>
       </c>
       <c r="D88">
-        <v>-0.01026069736954675</v>
+        <v>-0.0182205513851562</v>
       </c>
       <c r="E88">
-        <v>-0.01218206353259268</v>
+        <v>0.01560851928124551</v>
       </c>
       <c r="F88">
-        <v>-0.01151236716392348</v>
+        <v>-0.01313655954524573</v>
       </c>
       <c r="G88">
-        <v>0.01285241650232473</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03762330692960114</v>
+      </c>
+      <c r="H88">
+        <v>0.03488056437810692</v>
+      </c>
+      <c r="I88">
+        <v>0.02474949127036864</v>
+      </c>
+      <c r="J88">
+        <v>-0.02868475224540333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.002681027283877114</v>
+        <v>0.06613699917244834</v>
       </c>
       <c r="C89">
-        <v>-0.4187722332887083</v>
+        <v>-0.3556927184472825</v>
       </c>
       <c r="D89">
-        <v>0.08896031494248936</v>
+        <v>0.17068367543703</v>
       </c>
       <c r="E89">
-        <v>-0.002676555331213719</v>
+        <v>-0.04430480823446019</v>
       </c>
       <c r="F89">
-        <v>0.01265593394986725</v>
+        <v>0.04155424114070973</v>
       </c>
       <c r="G89">
-        <v>0.03977806961675472</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04645296734081593</v>
+      </c>
+      <c r="H89">
+        <v>0.03912587703761654</v>
+      </c>
+      <c r="I89">
+        <v>-0.2669962192786898</v>
+      </c>
+      <c r="J89">
+        <v>0.05544852081083358</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.00110500333658341</v>
+        <v>0.04644221532032106</v>
       </c>
       <c r="C90">
-        <v>-0.3094554860116647</v>
+        <v>-0.3102837090201827</v>
       </c>
       <c r="D90">
-        <v>0.02293751185752099</v>
+        <v>0.1304603823306063</v>
       </c>
       <c r="E90">
-        <v>0.04749969907405552</v>
+        <v>-0.03073800161169915</v>
       </c>
       <c r="F90">
-        <v>0.01623038026237432</v>
+        <v>0.03857908619680606</v>
       </c>
       <c r="G90">
-        <v>0.04167167124950304</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02451943061429594</v>
+      </c>
+      <c r="H90">
+        <v>0.001988034540161292</v>
+      </c>
+      <c r="I90">
+        <v>-0.2314108676102612</v>
+      </c>
+      <c r="J90">
+        <v>0.02231128422353704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2811217290605425</v>
+        <v>0.2975703442237007</v>
       </c>
       <c r="C91">
-        <v>0.02083304605837329</v>
+        <v>0.0381915104155859</v>
       </c>
       <c r="D91">
-        <v>-0.06416911214547059</v>
+        <v>0.007367432141823436</v>
       </c>
       <c r="E91">
-        <v>-0.2855152847684884</v>
+        <v>0.08502862265242463</v>
       </c>
       <c r="F91">
-        <v>-0.1200862801618428</v>
+        <v>-0.2915284524322194</v>
       </c>
       <c r="G91">
-        <v>-0.02521220931124124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02874879156642389</v>
+      </c>
+      <c r="H91">
+        <v>-0.008172883287709152</v>
+      </c>
+      <c r="I91">
+        <v>-0.1079247264982947</v>
+      </c>
+      <c r="J91">
+        <v>-0.06975063610120022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.01034048193590052</v>
+        <v>0.1012315597150277</v>
       </c>
       <c r="C92">
-        <v>-0.4287597429427537</v>
+        <v>-0.4180091964390055</v>
       </c>
       <c r="D92">
-        <v>0.185921214075771</v>
+        <v>0.1504704947521477</v>
       </c>
       <c r="E92">
-        <v>-0.1173327857984989</v>
+        <v>-0.06365049865419313</v>
       </c>
       <c r="F92">
-        <v>-0.06342331184119961</v>
+        <v>-0.1138559723852742</v>
       </c>
       <c r="G92">
-        <v>-0.1282597625629653</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.1105401893887455</v>
+      </c>
+      <c r="H92">
+        <v>0.4424683613760956</v>
+      </c>
+      <c r="I92">
+        <v>0.692826428787178</v>
+      </c>
+      <c r="J92">
+        <v>-0.2449145952487774</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01130303649011083</v>
+        <v>0.05043429137597251</v>
       </c>
       <c r="C93">
-        <v>-0.3757891817991084</v>
+        <v>-0.3725585824403193</v>
       </c>
       <c r="D93">
-        <v>0.06315054007792444</v>
+        <v>0.1713914165049616</v>
       </c>
       <c r="E93">
-        <v>-0.02305005094630822</v>
+        <v>-0.05933154996690787</v>
       </c>
       <c r="F93">
-        <v>-0.007783276704099936</v>
+        <v>0.009713759567015713</v>
       </c>
       <c r="G93">
-        <v>-0.03143492412465219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03644486763966868</v>
+      </c>
+      <c r="H93">
+        <v>-0.02762694013450116</v>
+      </c>
+      <c r="I93">
+        <v>-0.1698068985891938</v>
+      </c>
+      <c r="J93">
+        <v>0.05161583963697845</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2758525040954264</v>
+        <v>0.3035584715776616</v>
       </c>
       <c r="C94">
-        <v>-0.07318020500634652</v>
+        <v>-0.004326883802142986</v>
       </c>
       <c r="D94">
-        <v>-0.03045938321592622</v>
+        <v>0.04793783828515279</v>
       </c>
       <c r="E94">
-        <v>-0.3471389411692159</v>
+        <v>0.1302874680674799</v>
       </c>
       <c r="F94">
-        <v>-0.4083481839077289</v>
+        <v>-0.3455556752163973</v>
       </c>
       <c r="G94">
-        <v>0.1475817807062803</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1999531085235527</v>
+      </c>
+      <c r="H94">
+        <v>0.146071611389639</v>
+      </c>
+      <c r="I94">
+        <v>-0.047779138607704</v>
+      </c>
+      <c r="J94">
+        <v>0.1676076592185224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.200837633871622</v>
+        <v>0.130386990463661</v>
       </c>
       <c r="C95">
-        <v>-0.0310438020682879</v>
+        <v>0.07473105398385059</v>
       </c>
       <c r="D95">
-        <v>-0.005157248180278095</v>
+        <v>0.07567596882942541</v>
       </c>
       <c r="E95">
-        <v>-0.4006036969890804</v>
+        <v>0.03280568021386265</v>
       </c>
       <c r="F95">
-        <v>0.8311982209864681</v>
+        <v>-0.0730778396383293</v>
       </c>
       <c r="G95">
-        <v>-0.09847332984246052</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8831899822313691</v>
+      </c>
+      <c r="H95">
+        <v>-0.2202003365070386</v>
+      </c>
+      <c r="I95">
+        <v>0.09101619715770407</v>
+      </c>
+      <c r="J95">
+        <v>0.2697215927569462</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2239449228424792</v>
+        <v>0.210845489436179</v>
       </c>
       <c r="C98">
-        <v>-0.1171066628117696</v>
+        <v>-0.03627489026739636</v>
       </c>
       <c r="D98">
-        <v>0.04805719666768725</v>
+        <v>0.08446554699600722</v>
       </c>
       <c r="E98">
-        <v>0.09454193885226507</v>
+        <v>-0.02496420716211769</v>
       </c>
       <c r="F98">
-        <v>0.0550659184571056</v>
+        <v>0.1613872914757384</v>
       </c>
       <c r="G98">
-        <v>0.03531885872869528</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1001182785624092</v>
+      </c>
+      <c r="H98">
+        <v>-0.3210324701687677</v>
+      </c>
+      <c r="I98">
+        <v>0.1649339934589592</v>
+      </c>
+      <c r="J98">
+        <v>0.0442025434758386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02182573697946397</v>
+        <v>0.01624279596408938</v>
       </c>
       <c r="C101">
-        <v>0.01868222809368844</v>
+        <v>0.02916109835067396</v>
       </c>
       <c r="D101">
-        <v>-0.03137446731698523</v>
+        <v>-0.01634330215207037</v>
       </c>
       <c r="E101">
-        <v>0.02541616753275132</v>
+        <v>0.03272389907577394</v>
       </c>
       <c r="F101">
-        <v>0.01582210269094577</v>
+        <v>0.06532602808172135</v>
       </c>
       <c r="G101">
-        <v>0.02585760355046504</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02407108119557323</v>
+      </c>
+      <c r="H101">
+        <v>0.1094709991235213</v>
+      </c>
+      <c r="I101">
+        <v>0.04073167983279777</v>
+      </c>
+      <c r="J101">
+        <v>0.1129824803258858</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1198689006590922</v>
+        <v>0.1200391309028618</v>
       </c>
       <c r="C102">
-        <v>0.01338502098341113</v>
+        <v>0.02186054168829175</v>
       </c>
       <c r="D102">
-        <v>-0.03889258086378115</v>
+        <v>-0.009151252947767854</v>
       </c>
       <c r="E102">
-        <v>-0.0881943574850164</v>
+        <v>0.05177948532843857</v>
       </c>
       <c r="F102">
-        <v>-0.007049198251424299</v>
+        <v>-0.09779448721285</v>
       </c>
       <c r="G102">
-        <v>-0.009802624022840972</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01929274340241474</v>
+      </c>
+      <c r="H102">
+        <v>-0.02239453547939117</v>
+      </c>
+      <c r="I102">
+        <v>-0.04642027478365666</v>
+      </c>
+      <c r="J102">
+        <v>-0.03906448443368668</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01937294081075005</v>
+        <v>0.03273199639965702</v>
       </c>
       <c r="C103">
-        <v>0.001536858561266969</v>
+        <v>0.004817171875836977</v>
       </c>
       <c r="D103">
-        <v>-0.0141458084710073</v>
+        <v>-0.01010659501032183</v>
       </c>
       <c r="E103">
-        <v>-0.03080913310298773</v>
+        <v>0.02116157962614041</v>
       </c>
       <c r="F103">
-        <v>-0.01579149502141181</v>
+        <v>-0.02943248074086009</v>
       </c>
       <c r="G103">
-        <v>0.01676224958489505</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01379472494194203</v>
+      </c>
+      <c r="H103">
+        <v>0.01423515596215035</v>
+      </c>
+      <c r="I103">
+        <v>-0.03187270198403427</v>
+      </c>
+      <c r="J103">
+        <v>-0.01042381242013844</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
